--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1489575d681a5a9b/JOD - Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{1B229759-AA03-40B1-8731-49468E5C879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A89D83F-D8F1-4BD6-9DCA-4DBA0310C8B6}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{1B229759-AA03-40B1-8731-49468E5C879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA45F541-AB89-4C7B-B7B2-D1F69F4586B8}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{390D0AD6-5789-4291-B236-C31189F0A205}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{390D0AD6-5789-4291-B236-C31189F0A205}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>0.0.0.0</t>
   </si>
@@ -326,6 +326,24 @@
   </si>
   <si>
     <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>subnetmask?</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>nccc cccc</t>
+  </si>
+  <si>
+    <t>1000 0000</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
   </si>
 </sst>
 </file>
@@ -392,6 +410,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBFBFB-C07A-46DF-8176-0A3A8C58454D}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1731,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4F5240-1E31-40C4-8FF0-E450C38148E2}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,6 +1936,51 @@
         <v>93</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
